--- a/src/out.xlsx
+++ b/src/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Codigo</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>COD-9</t>
+  </si>
+  <si>
+    <t>EL DE SRC NOVE ???</t>
   </si>
   <si>
     <t>PRUEBA</t>
@@ -129,13 +132,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -178,27 +187,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -536,18 +548,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,13 +759,13 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -761,29 +773,29 @@
         <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
